--- a/po_analysis_by_asin/B0971BG25M_po_data.xlsx
+++ b/po_analysis_by_asin/B0971BG25M_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,103 +452,103 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44934.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>1350</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>44941.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>2580</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45320</v>
+        <v>44955.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>2430</v>
+        <v>750</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45355</v>
+        <v>44962.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>2360</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45362</v>
+        <v>44969.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>720</v>
+        <v>630</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45369</v>
+        <v>44976.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>130</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45376</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>150</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45383</v>
+        <v>45018.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>1860</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45397</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>820</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45404</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45411</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>860</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45418</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>760</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45432</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>60</v>
@@ -556,145 +556,401 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45439</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>1920</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45446</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>4740</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45453</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>2220</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45460</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>2580</v>
+        <v>6900</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45488</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>220</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45523</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>60</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45530</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45537</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>180</v>
+        <v>480</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45544</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>160</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45551</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>1260</v>
+        <v>440</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45558</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>120</v>
+        <v>450</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45565</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>480</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45572</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>280</v>
+        <v>420</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45579</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>2460</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45586</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>1080</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45593</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>2780</v>
+        <v>770</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45600</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>40</v>
+        <v>870</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45614</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B32" t="n">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>4740</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B64" t="n">
         <v>460</v>
       </c>
     </row>
@@ -709,7 +965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -731,81 +987,177 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>6360</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45352</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>3360</v>
+        <v>4990</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45383</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>2800</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45413</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>3600</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45444</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>9540</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45474</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>220</v>
+        <v>7050</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45505</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45536</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>1720</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45566</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>7080</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45597</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B11" t="n">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>9540</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>7080</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45626.99999999999</v>
+      </c>
+      <c r="B23" t="n">
         <v>500</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0971BG25M_po_data.xlsx
+++ b/po_analysis_by_asin/B0971BG25M_po_data.xlsx
@@ -735,7 +735,7 @@
         <v>45361.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>2360</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="38">
@@ -1094,7 +1094,7 @@
         <v>45382.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>3360</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="16">

--- a/po_analysis_by_asin/B0971BG25M_po_data.xlsx
+++ b/po_analysis_by_asin/B0971BG25M_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -981,7 +982,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1159,6 +1160,1041 @@
       </c>
       <c r="B23" t="n">
         <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44934.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>867</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-707.6262833788974</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2427.541732356647</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44941.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>869</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-502.3718782367143</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2323.550635821488</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44955.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>873</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-687.7315539440028</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2385.172307721542</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44962.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>875</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-688.0635249390308</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2336.481957694816</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>877</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-582.059403644872</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2311.354301982832</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>879</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-716.1997314805416</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2350.521377338677</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>881</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-549.5780533309635</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2373.451419620368</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>892</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-666.1446546216977</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2222.083928813098</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>896</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-785.1845166809987</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2323.412111660037</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>898</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-628.1359634153733</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2409.663423724364</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>900</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-621.7010980443848</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2389.332033001493</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>902</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-611.8099400913554</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2475.645416138929</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>904</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-599.2299612059238</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2433.301752433723</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>907</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-475.8760193182584</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2514.291465587828</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>909</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-733.9157492568071</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2313.035574259691</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>915</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-613.6928300760612</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2435.025858482564</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>917</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-519.481379924644</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2391.126552915374</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>927</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-659.4149138612594</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2434.140241075021</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>930</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-516.7953405593296</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2452.728960161011</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>932</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-569.1777534129652</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2595.792719138955</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>934</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-616.6433196867523</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2446.730933170715</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>942</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-630.987039287863</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2515.60480577079</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>944</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-543.3840583671979</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2317.809206215936</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>946</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-472.3726241981212</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2449.657963142407</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>953</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-583.487773017754</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2441.325994966036</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>955</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-607.1253863292711</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2318.777787259204</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>957</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-591.436135923776</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2461.130193378784</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>959</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-420.1282069987744</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2556.652082147255</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>961</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-482.187146429156</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2362.505736787839</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>963</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-470.2396855263331</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2396.679087644793</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>967</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-542.2480313666383</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2492.218874672741</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>969</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-560.7950380487877</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2390.934504793229</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>976</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-480.5670683028305</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2551.452865937633</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>978</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-581.9542379565775</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2529.679595170501</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>984</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-543.0949971655706</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2418.659597774833</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>994</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-472.5286679456196</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2484.216536915694</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>997</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-476.6430973054055</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2600.348401644927</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>999</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-413.3443639552619</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2658.315331624307</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-517.8179341760381</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2486.070438161166</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1003</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-563.4928582754717</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2384.844417611644</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1007</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-528.0284369691774</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2518.637269974447</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1009</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-513.3205641072523</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2531.933811446925</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1011</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-520.8308896475933</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2517.388903939485</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1013</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-476.4606472390046</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2550.406455056086</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-332.3003757074608</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2462.08558974142</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1020</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-514.0090382393123</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2465.791891845433</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1022</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-475.6608074526677</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2599.085961040168</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1024</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-533.0046637000653</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2486.037953335565</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1026</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-490.1148924918278</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2526.034798397764</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1034</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-666.3493775725404</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2519.918462055786</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1045</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-486.308550901864</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2467.0016232671</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1047</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-468.9386375287517</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2541.21083860675</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1049</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-591.8998733272168</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2539.616940592382</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1051</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-509.8565236996491</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2534.946205482458</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1053</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-615.3555478491078</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2430.999671194031</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1055</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-499.4983932298556</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2465.224031543906</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1057</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-520.2818609085949</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2580.54758040737</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1059</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-539.7761164292399</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2524.162311553299</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1061</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-426.932637005753</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2523.340233989008</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1064</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-476.3431771330168</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2557.403970465115</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1066</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-600.3376218264655</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2485.859400736872</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1068</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-509.1127437837943</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2513.678809639368</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1072</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-372.9444926712934</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2564.928199125631</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1074</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-446.3245673426138</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2663.313145972819</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1076</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-399.241892941304</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2627.301189820449</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1078</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-431.9015077057291</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2609.660871567822</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1080</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-413.2830631657171</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2687.517182178803</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1082</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-343.4950577141801</v>
+      </c>
+      <c r="D69" t="n">
+        <v>2540.64295832068</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1085</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-337.1848152018247</v>
+      </c>
+      <c r="D70" t="n">
+        <v>2521.885631320898</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1087</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-348.9419208029659</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2514.52446668133</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1089</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-506.8560575507939</v>
+      </c>
+      <c r="D72" t="n">
+        <v>2620.583114984674</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0971BG25M_po_data.xlsx
+++ b/po_analysis_by_asin/B0971BG25M_po_data.xlsx
@@ -1173,7 +1173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1192,16 +1192,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1210,12 +1200,6 @@
       <c r="B2" t="n">
         <v>867</v>
       </c>
-      <c r="C2" t="n">
-        <v>-707.6262833788974</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2427.541732356647</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1224,12 +1208,6 @@
       <c r="B3" t="n">
         <v>869</v>
       </c>
-      <c r="C3" t="n">
-        <v>-502.3718782367143</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2323.550635821488</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1238,12 +1216,6 @@
       <c r="B4" t="n">
         <v>873</v>
       </c>
-      <c r="C4" t="n">
-        <v>-687.7315539440028</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2385.172307721542</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1252,12 +1224,6 @@
       <c r="B5" t="n">
         <v>875</v>
       </c>
-      <c r="C5" t="n">
-        <v>-688.0635249390308</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2336.481957694816</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1266,12 +1232,6 @@
       <c r="B6" t="n">
         <v>877</v>
       </c>
-      <c r="C6" t="n">
-        <v>-582.059403644872</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2311.354301982832</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1280,12 +1240,6 @@
       <c r="B7" t="n">
         <v>879</v>
       </c>
-      <c r="C7" t="n">
-        <v>-716.1997314805416</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2350.521377338677</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1294,12 +1248,6 @@
       <c r="B8" t="n">
         <v>881</v>
       </c>
-      <c r="C8" t="n">
-        <v>-549.5780533309635</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2373.451419620368</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1308,12 +1256,6 @@
       <c r="B9" t="n">
         <v>892</v>
       </c>
-      <c r="C9" t="n">
-        <v>-666.1446546216977</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2222.083928813098</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1322,12 +1264,6 @@
       <c r="B10" t="n">
         <v>896</v>
       </c>
-      <c r="C10" t="n">
-        <v>-785.1845166809987</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2323.412111660037</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1336,12 +1272,6 @@
       <c r="B11" t="n">
         <v>898</v>
       </c>
-      <c r="C11" t="n">
-        <v>-628.1359634153733</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2409.663423724364</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1350,12 +1280,6 @@
       <c r="B12" t="n">
         <v>900</v>
       </c>
-      <c r="C12" t="n">
-        <v>-621.7010980443848</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2389.332033001493</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1364,12 +1288,6 @@
       <c r="B13" t="n">
         <v>902</v>
       </c>
-      <c r="C13" t="n">
-        <v>-611.8099400913554</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2475.645416138929</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1378,12 +1296,6 @@
       <c r="B14" t="n">
         <v>904</v>
       </c>
-      <c r="C14" t="n">
-        <v>-599.2299612059238</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2433.301752433723</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1392,12 +1304,6 @@
       <c r="B15" t="n">
         <v>907</v>
       </c>
-      <c r="C15" t="n">
-        <v>-475.8760193182584</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2514.291465587828</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1406,12 +1312,6 @@
       <c r="B16" t="n">
         <v>909</v>
       </c>
-      <c r="C16" t="n">
-        <v>-733.9157492568071</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2313.035574259691</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1420,12 +1320,6 @@
       <c r="B17" t="n">
         <v>915</v>
       </c>
-      <c r="C17" t="n">
-        <v>-613.6928300760612</v>
-      </c>
-      <c r="D17" t="n">
-        <v>2435.025858482564</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1434,12 +1328,6 @@
       <c r="B18" t="n">
         <v>917</v>
       </c>
-      <c r="C18" t="n">
-        <v>-519.481379924644</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2391.126552915374</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1448,12 +1336,6 @@
       <c r="B19" t="n">
         <v>927</v>
       </c>
-      <c r="C19" t="n">
-        <v>-659.4149138612594</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2434.140241075021</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1462,12 +1344,6 @@
       <c r="B20" t="n">
         <v>930</v>
       </c>
-      <c r="C20" t="n">
-        <v>-516.7953405593296</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2452.728960161011</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1476,12 +1352,6 @@
       <c r="B21" t="n">
         <v>932</v>
       </c>
-      <c r="C21" t="n">
-        <v>-569.1777534129652</v>
-      </c>
-      <c r="D21" t="n">
-        <v>2595.792719138955</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1490,12 +1360,6 @@
       <c r="B22" t="n">
         <v>934</v>
       </c>
-      <c r="C22" t="n">
-        <v>-616.6433196867523</v>
-      </c>
-      <c r="D22" t="n">
-        <v>2446.730933170715</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1504,12 +1368,6 @@
       <c r="B23" t="n">
         <v>942</v>
       </c>
-      <c r="C23" t="n">
-        <v>-630.987039287863</v>
-      </c>
-      <c r="D23" t="n">
-        <v>2515.60480577079</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1518,12 +1376,6 @@
       <c r="B24" t="n">
         <v>944</v>
       </c>
-      <c r="C24" t="n">
-        <v>-543.3840583671979</v>
-      </c>
-      <c r="D24" t="n">
-        <v>2317.809206215936</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1532,12 +1384,6 @@
       <c r="B25" t="n">
         <v>946</v>
       </c>
-      <c r="C25" t="n">
-        <v>-472.3726241981212</v>
-      </c>
-      <c r="D25" t="n">
-        <v>2449.657963142407</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1546,12 +1392,6 @@
       <c r="B26" t="n">
         <v>953</v>
       </c>
-      <c r="C26" t="n">
-        <v>-583.487773017754</v>
-      </c>
-      <c r="D26" t="n">
-        <v>2441.325994966036</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1560,12 +1400,6 @@
       <c r="B27" t="n">
         <v>955</v>
       </c>
-      <c r="C27" t="n">
-        <v>-607.1253863292711</v>
-      </c>
-      <c r="D27" t="n">
-        <v>2318.777787259204</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1574,12 +1408,6 @@
       <c r="B28" t="n">
         <v>957</v>
       </c>
-      <c r="C28" t="n">
-        <v>-591.436135923776</v>
-      </c>
-      <c r="D28" t="n">
-        <v>2461.130193378784</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1588,12 +1416,6 @@
       <c r="B29" t="n">
         <v>959</v>
       </c>
-      <c r="C29" t="n">
-        <v>-420.1282069987744</v>
-      </c>
-      <c r="D29" t="n">
-        <v>2556.652082147255</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1602,12 +1424,6 @@
       <c r="B30" t="n">
         <v>961</v>
       </c>
-      <c r="C30" t="n">
-        <v>-482.187146429156</v>
-      </c>
-      <c r="D30" t="n">
-        <v>2362.505736787839</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1616,12 +1432,6 @@
       <c r="B31" t="n">
         <v>963</v>
       </c>
-      <c r="C31" t="n">
-        <v>-470.2396855263331</v>
-      </c>
-      <c r="D31" t="n">
-        <v>2396.679087644793</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1630,12 +1440,6 @@
       <c r="B32" t="n">
         <v>967</v>
       </c>
-      <c r="C32" t="n">
-        <v>-542.2480313666383</v>
-      </c>
-      <c r="D32" t="n">
-        <v>2492.218874672741</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1644,12 +1448,6 @@
       <c r="B33" t="n">
         <v>969</v>
       </c>
-      <c r="C33" t="n">
-        <v>-560.7950380487877</v>
-      </c>
-      <c r="D33" t="n">
-        <v>2390.934504793229</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1658,12 +1456,6 @@
       <c r="B34" t="n">
         <v>976</v>
       </c>
-      <c r="C34" t="n">
-        <v>-480.5670683028305</v>
-      </c>
-      <c r="D34" t="n">
-        <v>2551.452865937633</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1672,12 +1464,6 @@
       <c r="B35" t="n">
         <v>978</v>
       </c>
-      <c r="C35" t="n">
-        <v>-581.9542379565775</v>
-      </c>
-      <c r="D35" t="n">
-        <v>2529.679595170501</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1686,12 +1472,6 @@
       <c r="B36" t="n">
         <v>984</v>
       </c>
-      <c r="C36" t="n">
-        <v>-543.0949971655706</v>
-      </c>
-      <c r="D36" t="n">
-        <v>2418.659597774833</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1700,12 +1480,6 @@
       <c r="B37" t="n">
         <v>994</v>
       </c>
-      <c r="C37" t="n">
-        <v>-472.5286679456196</v>
-      </c>
-      <c r="D37" t="n">
-        <v>2484.216536915694</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1714,12 +1488,6 @@
       <c r="B38" t="n">
         <v>997</v>
       </c>
-      <c r="C38" t="n">
-        <v>-476.6430973054055</v>
-      </c>
-      <c r="D38" t="n">
-        <v>2600.348401644927</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1728,12 +1496,6 @@
       <c r="B39" t="n">
         <v>999</v>
       </c>
-      <c r="C39" t="n">
-        <v>-413.3443639552619</v>
-      </c>
-      <c r="D39" t="n">
-        <v>2658.315331624307</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1742,12 +1504,6 @@
       <c r="B40" t="n">
         <v>1001</v>
       </c>
-      <c r="C40" t="n">
-        <v>-517.8179341760381</v>
-      </c>
-      <c r="D40" t="n">
-        <v>2486.070438161166</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1756,12 +1512,6 @@
       <c r="B41" t="n">
         <v>1003</v>
       </c>
-      <c r="C41" t="n">
-        <v>-563.4928582754717</v>
-      </c>
-      <c r="D41" t="n">
-        <v>2384.844417611644</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1770,12 +1520,6 @@
       <c r="B42" t="n">
         <v>1007</v>
       </c>
-      <c r="C42" t="n">
-        <v>-528.0284369691774</v>
-      </c>
-      <c r="D42" t="n">
-        <v>2518.637269974447</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1784,12 +1528,6 @@
       <c r="B43" t="n">
         <v>1009</v>
       </c>
-      <c r="C43" t="n">
-        <v>-513.3205641072523</v>
-      </c>
-      <c r="D43" t="n">
-        <v>2531.933811446925</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1798,12 +1536,6 @@
       <c r="B44" t="n">
         <v>1011</v>
       </c>
-      <c r="C44" t="n">
-        <v>-520.8308896475933</v>
-      </c>
-      <c r="D44" t="n">
-        <v>2517.388903939485</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1812,12 +1544,6 @@
       <c r="B45" t="n">
         <v>1013</v>
       </c>
-      <c r="C45" t="n">
-        <v>-476.4606472390046</v>
-      </c>
-      <c r="D45" t="n">
-        <v>2550.406455056086</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1826,12 +1552,6 @@
       <c r="B46" t="n">
         <v>1018</v>
       </c>
-      <c r="C46" t="n">
-        <v>-332.3003757074608</v>
-      </c>
-      <c r="D46" t="n">
-        <v>2462.08558974142</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1840,12 +1560,6 @@
       <c r="B47" t="n">
         <v>1020</v>
       </c>
-      <c r="C47" t="n">
-        <v>-514.0090382393123</v>
-      </c>
-      <c r="D47" t="n">
-        <v>2465.791891845433</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1854,12 +1568,6 @@
       <c r="B48" t="n">
         <v>1022</v>
       </c>
-      <c r="C48" t="n">
-        <v>-475.6608074526677</v>
-      </c>
-      <c r="D48" t="n">
-        <v>2599.085961040168</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1868,12 +1576,6 @@
       <c r="B49" t="n">
         <v>1024</v>
       </c>
-      <c r="C49" t="n">
-        <v>-533.0046637000653</v>
-      </c>
-      <c r="D49" t="n">
-        <v>2486.037953335565</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1882,12 +1584,6 @@
       <c r="B50" t="n">
         <v>1026</v>
       </c>
-      <c r="C50" t="n">
-        <v>-490.1148924918278</v>
-      </c>
-      <c r="D50" t="n">
-        <v>2526.034798397764</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1896,12 +1592,6 @@
       <c r="B51" t="n">
         <v>1034</v>
       </c>
-      <c r="C51" t="n">
-        <v>-666.3493775725404</v>
-      </c>
-      <c r="D51" t="n">
-        <v>2519.918462055786</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1910,12 +1600,6 @@
       <c r="B52" t="n">
         <v>1045</v>
       </c>
-      <c r="C52" t="n">
-        <v>-486.308550901864</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2467.0016232671</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1924,12 +1608,6 @@
       <c r="B53" t="n">
         <v>1047</v>
       </c>
-      <c r="C53" t="n">
-        <v>-468.9386375287517</v>
-      </c>
-      <c r="D53" t="n">
-        <v>2541.21083860675</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1938,12 +1616,6 @@
       <c r="B54" t="n">
         <v>1049</v>
       </c>
-      <c r="C54" t="n">
-        <v>-591.8998733272168</v>
-      </c>
-      <c r="D54" t="n">
-        <v>2539.616940592382</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1952,12 +1624,6 @@
       <c r="B55" t="n">
         <v>1051</v>
       </c>
-      <c r="C55" t="n">
-        <v>-509.8565236996491</v>
-      </c>
-      <c r="D55" t="n">
-        <v>2534.946205482458</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -1966,12 +1632,6 @@
       <c r="B56" t="n">
         <v>1053</v>
       </c>
-      <c r="C56" t="n">
-        <v>-615.3555478491078</v>
-      </c>
-      <c r="D56" t="n">
-        <v>2430.999671194031</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -1980,12 +1640,6 @@
       <c r="B57" t="n">
         <v>1055</v>
       </c>
-      <c r="C57" t="n">
-        <v>-499.4983932298556</v>
-      </c>
-      <c r="D57" t="n">
-        <v>2465.224031543906</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -1994,12 +1648,6 @@
       <c r="B58" t="n">
         <v>1057</v>
       </c>
-      <c r="C58" t="n">
-        <v>-520.2818609085949</v>
-      </c>
-      <c r="D58" t="n">
-        <v>2580.54758040737</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -2008,12 +1656,6 @@
       <c r="B59" t="n">
         <v>1059</v>
       </c>
-      <c r="C59" t="n">
-        <v>-539.7761164292399</v>
-      </c>
-      <c r="D59" t="n">
-        <v>2524.162311553299</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -2022,12 +1664,6 @@
       <c r="B60" t="n">
         <v>1061</v>
       </c>
-      <c r="C60" t="n">
-        <v>-426.932637005753</v>
-      </c>
-      <c r="D60" t="n">
-        <v>2523.340233989008</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -2036,12 +1672,6 @@
       <c r="B61" t="n">
         <v>1064</v>
       </c>
-      <c r="C61" t="n">
-        <v>-476.3431771330168</v>
-      </c>
-      <c r="D61" t="n">
-        <v>2557.403970465115</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -2050,12 +1680,6 @@
       <c r="B62" t="n">
         <v>1066</v>
       </c>
-      <c r="C62" t="n">
-        <v>-600.3376218264655</v>
-      </c>
-      <c r="D62" t="n">
-        <v>2485.859400736872</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -2064,12 +1688,6 @@
       <c r="B63" t="n">
         <v>1068</v>
       </c>
-      <c r="C63" t="n">
-        <v>-509.1127437837943</v>
-      </c>
-      <c r="D63" t="n">
-        <v>2513.678809639368</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -2078,12 +1696,6 @@
       <c r="B64" t="n">
         <v>1072</v>
       </c>
-      <c r="C64" t="n">
-        <v>-372.9444926712934</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2564.928199125631</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -2092,12 +1704,6 @@
       <c r="B65" t="n">
         <v>1074</v>
       </c>
-      <c r="C65" t="n">
-        <v>-446.3245673426138</v>
-      </c>
-      <c r="D65" t="n">
-        <v>2663.313145972819</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -2106,12 +1712,6 @@
       <c r="B66" t="n">
         <v>1076</v>
       </c>
-      <c r="C66" t="n">
-        <v>-399.241892941304</v>
-      </c>
-      <c r="D66" t="n">
-        <v>2627.301189820449</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -2120,12 +1720,6 @@
       <c r="B67" t="n">
         <v>1078</v>
       </c>
-      <c r="C67" t="n">
-        <v>-431.9015077057291</v>
-      </c>
-      <c r="D67" t="n">
-        <v>2609.660871567822</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -2134,12 +1728,6 @@
       <c r="B68" t="n">
         <v>1080</v>
       </c>
-      <c r="C68" t="n">
-        <v>-413.2830631657171</v>
-      </c>
-      <c r="D68" t="n">
-        <v>2687.517182178803</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -2148,12 +1736,6 @@
       <c r="B69" t="n">
         <v>1082</v>
       </c>
-      <c r="C69" t="n">
-        <v>-343.4950577141801</v>
-      </c>
-      <c r="D69" t="n">
-        <v>2540.64295832068</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -2162,12 +1744,6 @@
       <c r="B70" t="n">
         <v>1085</v>
       </c>
-      <c r="C70" t="n">
-        <v>-337.1848152018247</v>
-      </c>
-      <c r="D70" t="n">
-        <v>2521.885631320898</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -2176,12 +1752,6 @@
       <c r="B71" t="n">
         <v>1087</v>
       </c>
-      <c r="C71" t="n">
-        <v>-348.9419208029659</v>
-      </c>
-      <c r="D71" t="n">
-        <v>2514.52446668133</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -2189,12 +1759,6 @@
       </c>
       <c r="B72" t="n">
         <v>1089</v>
-      </c>
-      <c r="C72" t="n">
-        <v>-506.8560575507939</v>
-      </c>
-      <c r="D72" t="n">
-        <v>2620.583114984674</v>
       </c>
     </row>
   </sheetData>
